--- a/biology/Histoire de la zoologie et de la botanique/Bonaventure_Sonké/Bonaventure_Sonké.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Bonaventure_Sonké/Bonaventure_Sonké.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bonaventure_Sonk%C3%A9</t>
+          <t>Bonaventure_Sonké</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bonaventure Sonké, né à Baham (département de la Mifi) le 8 juillet 1962[1], est un botaniste et enseignant-chercheur camerounais, professeur à l'université de Yaoundé I depuis 2007[2], chef du département de Biologie de l'École normale supérieure de Yaoundé où il est également directeur du Laboratoire de Botanique systématique et d’Écologie. Le rayonnement international de ses travaux est principalement lié aux Rubiaceae et à la flore du Cameroun[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bonaventure Sonké, né à Baham (département de la Mifi) le 8 juillet 1962, est un botaniste et enseignant-chercheur camerounais, professeur à l'université de Yaoundé I depuis 2007, chef du département de Biologie de l'École normale supérieure de Yaoundé où il est également directeur du Laboratoire de Botanique systématique et d’Écologie. Le rayonnement international de ses travaux est principalement lié aux Rubiaceae et à la flore du Cameroun.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bonaventure_Sonk%C3%A9</t>
+          <t>Bonaventure_Sonké</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études secondaires à Bafoussam, il se forme à l'Université de Yaoundé, puis à l'Université libre de Bruxelles (ULB), où il obtient son doctorat en 1998[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études secondaires à Bafoussam, il se forme à l'Université de Yaoundé, puis à l'Université libre de Bruxelles (ULB), où il obtient son doctorat en 1998.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bonaventure_Sonk%C3%A9</t>
+          <t>Bonaventure_Sonké</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Oxyanthus (Rubiaceae-Gardenieae-Gardeniinae) en Afrique centrale : étude systématique, Jardin botanique national de Belgique, Meise, 1999
 Forêts de la Réserve du Dja (Cameroun) : études floristiques et structurales, Jardin botanique national de Belgique, Meise, 2004
-La liste complète de ses travaux est en ligne[1].
+La liste complète de ses travaux est en ligne.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bonaventure_Sonk%C3%A9</t>
+          <t>Bonaventure_Sonké</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1996 la Société royale de botanique de Belgique lui remet le prix Émile De Wildeman pour sa contribution importante à la connaissance de la flore d'Afrique tropicale[4].
-En 2014 une nouvelle espèce d'orchidée – la deuxième du genre Distylodon –, découverte au Cameroun en bordure du parc national de Campo-Ma'an, lui est dédiée : Distylodon sonkeanum[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1996 la Société royale de botanique de Belgique lui remet le prix Émile De Wildeman pour sa contribution importante à la connaissance de la flore d'Afrique tropicale.
+En 2014 une nouvelle espèce d'orchidée – la deuxième du genre Distylodon –, découverte au Cameroun en bordure du parc national de Campo-Ma'an, lui est dédiée : Distylodon sonkeanum.
 </t>
         </is>
       </c>
